--- a/data/financial_statements/socf/FFIV.xlsx
+++ b/data/financial_statements/socf/FFIV.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,1238 +581,1265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>72402000</v>
+      </c>
+      <c r="C2">
         <v>89346000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>83019000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>56236000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>93559000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>110718000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>89604000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>43241000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>87678000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>77663000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>69872000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>61379000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>98527000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>94837000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>85905000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>116087000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>130905000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>132881000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>122743000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>109636000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>88429000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>135743000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>97662000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>93138000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>94218000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>108935000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>91789000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>75415000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>89716000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>97037000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>93172000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>85729000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>89076000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>94021000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>79473000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>69641000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>68048000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>76231000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>68178000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>63412000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>36875000</v>
+        <v>27472000</v>
       </c>
       <c r="C3">
-        <v>38308000</v>
+        <v>27211000</v>
       </c>
       <c r="D3">
-        <v>39238000</v>
+        <v>28600000</v>
       </c>
       <c r="E3">
-        <v>39923000</v>
+        <v>29538000</v>
       </c>
       <c r="F3">
-        <v>39877000</v>
+        <v>30260000</v>
       </c>
       <c r="G3">
+        <v>30439000</v>
+      </c>
+      <c r="H3">
         <v>28800000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>28525000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>27660000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>26520000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>26225000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>24133000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>18979000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>21862000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>18399000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>14245000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>14001000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>15410000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>14032000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>14869000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>15180000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>15545000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>15325000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>15391000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>14887000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>14492000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>14437000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>14084000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>13763000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>13358000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>12971000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>13212000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>13042000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>12066000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>11377000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>11241000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>11437000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>10300000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>9792000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>9979000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>48329000</v>
+      </c>
+      <c r="C4">
         <v>58513000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>59483000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>65088000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>72065000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>71255000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>11359000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>89292000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>74253000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>76604000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>60747000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>68205000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>54619000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>56476000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>48278000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>40092000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>41654000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>38053000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>41153000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>44837000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>55816000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>38272000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>41615000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>46753000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>43987000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>33310000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>40653000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>45189000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>42794000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>34837000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>32438000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>36269000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>31208000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>27203000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>31375000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>41228000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>26935000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>26550000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>25606000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>27548000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>-15837000</v>
+      </c>
+      <c r="C5">
         <v>-14468000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-43360000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4446000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-77223000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>42396000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-9036000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-25233000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-54416000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>8478000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>33707000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>37000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-32683000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-2056000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>8170000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>4502000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-28921000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2056000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-7259000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>76000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>238000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>3180000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-1143000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>19175000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-45327000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-5575000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>2581000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>12748000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-22000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-18586000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1599000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-7726000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-13967000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>69000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-20087000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-3131000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-17746000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1683000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-12348000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>16054000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>9168000</v>
+      </c>
+      <c r="C6">
         <v>-24578000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-15904000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-7088000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1260000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>594000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1922000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1884000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1443000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>928000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2116000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1439000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2020000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1609000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-2546000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-1904000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-991000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>754000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-1810000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-400000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>722000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1211000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1503000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1130000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>374000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-247000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1375000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-1608000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>146000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>-3690000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>-684000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-1761000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-3111000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-1328000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-2433000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-1659000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-25000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-767000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-297000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>760000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>-19981000</v>
+      </c>
+      <c r="C7">
         <v>52561000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2251000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-10262000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-25387000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9347000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>28115000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9396000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-23925000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>36280000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>398000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>21670000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-23606000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>36778000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>21186000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>14724000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2022000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>23006000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>-11115000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>2908000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-8216000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>16254000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>-6802000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-16010000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>37082000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>42139000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>-10766000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>-1917000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>3761000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>19896000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>12430000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-19091000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>26286000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>19998000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>-5632000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>-29638000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>33611000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>9370000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>-5823000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-23168000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>-32179000</v>
+        <v>36078000</v>
       </c>
       <c r="C8">
-        <v>-43236000</v>
+        <v>-34230000</v>
       </c>
       <c r="D8">
-        <v>-8916000</v>
+        <v>-42688000</v>
       </c>
       <c r="E8">
-        <v>3598000</v>
+        <v>-11449000</v>
       </c>
       <c r="F8">
-        <v>-53352000</v>
+        <v>-4168000</v>
       </c>
       <c r="G8">
+        <v>-67696000</v>
+      </c>
+      <c r="H8">
         <v>31540000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-18629000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>24670000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-50569000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-33891000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-32018000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>26156000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-3420000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-29047000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>5806000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>39188000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-7855000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>24307000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>12829000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>37788000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>2860000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>14404000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>15763000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>44091000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>11016000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>30407000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>-10793000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>53713000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>40491000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>20581000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>35664000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>43861000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>17836000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>44161000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-5715000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>36666000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>24628000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>41122000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-13923000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>167694000</v>
+        <v>157631000</v>
       </c>
       <c r="C9">
-        <v>83977000</v>
+        <v>154355000</v>
       </c>
       <c r="D9">
-        <v>138467000</v>
+        <v>71401000</v>
       </c>
       <c r="E9">
-        <v>104539000</v>
+        <v>126509000</v>
       </c>
       <c r="F9">
-        <v>210235000</v>
+        <v>90366000</v>
       </c>
       <c r="G9">
+        <v>197053000</v>
+      </c>
+      <c r="H9">
         <v>182304000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>128476000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>137363000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>175904000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>159174000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>181808000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>144012000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>206086000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>150345000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>193552000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>197858000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>204305000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>182051000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>184755000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>189957000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>213065000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>162564000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>175340000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>189312000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>204070000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>170476000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>133118000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>203871000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>183343000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>172507000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>142296000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>186395000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>169865000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>138234000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>81967000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>158926000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>147995000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>126230000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>80662000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>-13104000</v>
+      </c>
+      <c r="C10">
         <v>-8507000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-9325000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-5228000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-10564000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-7117000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-9444000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-9393000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-4697000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-12083000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-12394000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-13159000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-22304000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-20534000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-32952000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-29010000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-21046000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-17391000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-19828000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-9755000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-5491000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-7506000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-7460000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-9582000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-14133000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-17579000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-16116000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-16501000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-13292000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-18592000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-21213000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-10183000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-10319000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-7082000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-5517000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-5139000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-4980000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-5149000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-6665000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-6981000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1707,39 +1848,39 @@
         <v>0</v>
       </c>
       <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>-4000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-1500000</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>-3250000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-555000</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
       <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>-5219000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-1005000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1748,351 +1889,360 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>-67911000</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>-410072000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-1247000</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>-955574000</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>-611550000</v>
       </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>-49439000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-87724000</v>
       </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
       <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
         <v>-124918000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>75006000</v>
+      </c>
+      <c r="C13">
         <v>79229000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>118800000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>85140000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>36482000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-184527000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-149810000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>304385000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>26587000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>27897000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-34409000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>282120000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-7096000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-273515000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>430961000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>182359000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-39347000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-210701000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-35652000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-41592000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-115613000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-71880000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>224000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>64153000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>17972000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>48417000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>554000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>45963000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>36027000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-185830000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>166396000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>130039000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-54218000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>27398000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>44476000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>75778000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>75146000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-15527000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-117323000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>145234000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>-2118000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-2091000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-3221000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-13595000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-3112000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-10920000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-7928000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-2536000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-87000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>32000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-3000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>61902000</v>
+      </c>
+      <c r="C15">
         <v>70722000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>109475000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>79912000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-41993000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-191644000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-159254000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-115080000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>20643000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>15814000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-46803000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-686613000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-29400000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-294049000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-213541000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>153349000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-60393000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-228092000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-55480000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-51347000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-121104000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-79299000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-7323000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>54539000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-129000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>29335000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-15562000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>29462000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>19485000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-204977000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>145183000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>114637000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-65542000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>20316000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-10480000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>70639000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>70166000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-108400000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-123988000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>13335000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>-18339000</v>
+        <v>-350000000</v>
       </c>
       <c r="C16">
-        <v>-17576000</v>
+        <v>-5000000</v>
       </c>
       <c r="D16">
-        <v>-16958000</v>
+        <v>-5000000</v>
       </c>
       <c r="E16">
-        <v>-19173000</v>
+        <v>-5000000</v>
       </c>
       <c r="F16">
-        <v>-18182000</v>
+        <v>-5000000</v>
       </c>
       <c r="G16">
         <v>-5000000</v>
@@ -2110,604 +2260,622 @@
         <v>-5000000</v>
       </c>
       <c r="L16">
+        <v>-5000000</v>
+      </c>
+      <c r="M16">
         <v>400000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-10217000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>-17825000</v>
+      </c>
+      <c r="C17">
         <v>859000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-214947000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-123965000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-97430000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1054000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>36011000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-498509000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>27196000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-49171000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>30556000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-49525000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>20959000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>143000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>26555000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-100013000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-82132000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-150017000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-121117000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-150019000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-130110000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-149945000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-121932000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-149989000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-131185000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-150002000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-123770000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-199922000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-181561000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-149981900</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-126229000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-156801000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-133407000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-149948000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-129212000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-149271000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-186812000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-49814000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-32635000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-49543000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>58019000</v>
+        <v>-7037000</v>
       </c>
       <c r="C18">
-        <v>60808000</v>
+        <v>-2118000</v>
       </c>
       <c r="D18">
-        <v>61592000</v>
+        <v>-2091000</v>
       </c>
       <c r="E18">
-        <v>55214000</v>
+        <v>-3221000</v>
       </c>
       <c r="F18">
-        <v>57543000</v>
+        <v>-13595000</v>
       </c>
       <c r="G18">
+        <v>-3112000</v>
+      </c>
+      <c r="H18">
         <v>-2992000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-3447000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-4481000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-2536000</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>-3040000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>56333000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>548000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1232000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>2299000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>2940000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1012000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>218000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>184000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1194000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>2906000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>2425000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1548000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>2638000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>2128000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>3347000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>4626000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>182000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>435000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1261000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1892000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>-19598000</v>
+        <v>-374862000</v>
       </c>
       <c r="C19">
-        <v>-234614000</v>
+        <v>-6259000</v>
       </c>
       <c r="D19">
-        <v>-144144000</v>
+        <v>-222038000</v>
       </c>
       <c r="E19">
-        <v>-130198000</v>
+        <v>-132186000</v>
       </c>
       <c r="F19">
-        <v>-20240000</v>
+        <v>-116025000</v>
       </c>
       <c r="G19">
+        <v>-7058000</v>
+      </c>
+      <c r="H19">
         <v>28019000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-506956000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>17715000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-56707000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>25556000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>347435000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>20959000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>143000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>26555000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-100013000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-82132000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-150017000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-121117000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-150019000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-130110000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-149397000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-120700000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-147690000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-128245000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-148990000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-123552000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-199738000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-180367000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-147076000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-123804000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-155253000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-130769000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-147820000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-125865000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-144645000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-186630000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-49379000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-31374000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-47651000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>3079000</v>
+      </c>
+      <c r="C20">
         <v>-2732000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-2636000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-136000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-861000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-1181000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>613000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-1161000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1655000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>289000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>234000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-1910000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>820000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-1289000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>154000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-311000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>46000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-752000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-2164000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>530000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>46000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-1980000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>598000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>650000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-2575000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>559000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-90000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>2186000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-152000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-3010000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>689000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-3029000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-2632000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-2832000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>248000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>547000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-827000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>1197000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-2250000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-1247000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>-152250000</v>
+      </c>
+      <c r="C21">
         <v>216086000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-43798000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>74099000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-68513000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-2830000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>51682000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-494721000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>177376000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>135300000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>138161000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-159280000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>136391000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-89109000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-36487000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>246577000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>55379000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-174556000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>3290000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-16081000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-61211000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-17611000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>35139000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>82839000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>58363000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>84974000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>31272000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>-34972000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>42837000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-171720000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>194575000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>98651000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-12548000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>39529000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>2137000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>8508000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>41635000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-8587000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-31382000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>45099000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>762207000</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2716,11 +2884,11 @@
         <v>0</v>
       </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>584333000</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>0</v>
       </c>
@@ -2728,11 +2896,11 @@
         <v>0</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>852826000</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
@@ -2740,11 +2908,11 @@
         <v>0</v>
       </c>
       <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
         <v>602254000</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="O22">
         <v>0</v>
       </c>
@@ -2752,11 +2920,11 @@
         <v>0</v>
       </c>
       <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>425894000</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
       <c r="S22">
         <v>0</v>
       </c>
@@ -2764,23 +2932,23 @@
         <v>0</v>
       </c>
       <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>674452000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1151000</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <v>514571000</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
       <c r="AA22">
         <v>0</v>
       </c>
@@ -2788,11 +2956,11 @@
         <v>0</v>
       </c>
       <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
         <v>390460000</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
       <c r="AE22">
         <v>0</v>
       </c>
@@ -2800,11 +2968,11 @@
         <v>0</v>
       </c>
       <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
         <v>281502000</v>
       </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
       <c r="AI22">
         <v>0</v>
       </c>
@@ -2812,265 +2980,274 @@
         <v>0</v>
       </c>
       <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
         <v>189693000</v>
       </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
       <c r="AM22">
         <v>0</v>
       </c>
       <c r="AN22">
         <v>0</v>
       </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>609957000</v>
+      </c>
+      <c r="C23">
         <v>216086000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-43798000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>74099000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>515820000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-2830000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>51682000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-494721000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1030202000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>135300000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>138161000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-159280000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>738645000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-89109000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-36487000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>246577000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>481273000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-174556000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>3290000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>-16081000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>613241000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-16460000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>35139000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>82839000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>572934000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>84974000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>31272000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-34972000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>433297000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-171720000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>194575000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>98651000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>268954000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>39529000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>2137000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>8508000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>231328000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>-8587000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-31382000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>45099000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>62874000</v>
+      </c>
+      <c r="C24">
         <v>59455000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>61875000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>64129000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>63757000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>60522000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>61468000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>63220000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>58069000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>52633000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>50868000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>50786000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>47661000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>43732000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>40999000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>39494000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>38689000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>36848000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>38739000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>41320000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>40948000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>41586000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>43234000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>43895000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>46611000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>38317000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>38437000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>41773000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>38233000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>41634000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>36517000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>36777000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>30625000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>25159000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>31833000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>35636000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>34528000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>22031000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>27861000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>27610000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3189,614 +3366,632 @@
       <c r="AN25">
         <v>0</v>
       </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>-0.0044</v>
+      </c>
+      <c r="C26">
         <v>-0.0301</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-0.0129</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-0.0199</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-0.0332</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-0.0449</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-0.0351</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-0.0209</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-0.0916</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-0.1099</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-0.0824</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-0.06519999999999999</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-0.0968</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-0.1153</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-0.111</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-0.1363</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-0.1161</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-0.08890000000000001</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-0.1019</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>-0.1186</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-0.1218</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-0.1281</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.1249</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>-0.1104</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-0.1032</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-0.105</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-0.1065</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-0.1084</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-0.1174</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-0.0929</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-0.0927</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>-0.0803</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-0.0683</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-0.0721</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>-0.0733</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>-0.0775</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-0.0822</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-0.0804</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-0.1009</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>-0.0757</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>9428000</v>
+      </c>
+      <c r="C27">
         <v>-20715000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-99701000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-24353000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-105518000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-15359000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>52541000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-32582000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-52228000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-4883000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>2330000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>28091000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-28113000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>32911000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-2237000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>23128000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>11298000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>17961000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>4123000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>15413000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>30532000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>23505000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>7962000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>20058000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>36220000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>47333000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>23597000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-1570000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>57598000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>38111000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>33926000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>7086000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>53069000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>36575000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>16009000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-40143000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>52506000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>34914000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>22654000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-20277000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>75006000</v>
+      </c>
+      <c r="C28">
         <v>79229000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>118800000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>85140000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>36482000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-184527000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-149810000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>304385000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>26587000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>27897000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-34409000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>282120000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-7096000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-273515000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>430961000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>182359000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-39347000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-210701000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-35652000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-41592000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-115613000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-71880000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>224000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>64153000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>17972000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>48417000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>554000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>45963000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>36027000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-185830000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>166396000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>130039000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-54218000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>27398000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>44476000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>75778000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>75146000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-15527000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-117323000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>145234000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>-17825000</v>
+      </c>
+      <c r="C29">
         <v>859000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-214947000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-123965000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-97430000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1054000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>36011000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-498509000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>27196000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-49171000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>30556000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-49525000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>20959000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>143000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>26555000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-100013000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-82132000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-150017000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-121117000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-150019000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-130110000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-149945000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-121932000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-149989000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-131185000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-150002000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-123770000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-199922000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-181561000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-149981900</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-126229000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-156801000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-133407000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-149948000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-129212000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-149271000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-186812000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-49814000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-32635000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-49543000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>-17825000</v>
+      </c>
+      <c r="C30">
         <v>859000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-214947000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-123965000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-97430000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1054000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>36011000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-498509000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>27196000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-49171000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>30556000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-49525000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>20959000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>143000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>26555000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-100013000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-82132000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-150017000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-121117000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-150019000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-130110000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-149945000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-121932000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-149989000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-131185000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-150002000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-123770000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-199922000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-181561000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-149981900</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-126229000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-156801000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-133407000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-149948000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-129212000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-149271000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-186812000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-49814000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-32635000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-49543000</v>
       </c>
     </row>
